--- a/Summary/Depth.xlsx
+++ b/Summary/Depth.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8175"/>
+    <workbookView windowWidth="24750" windowHeight="10575"/>
   </bookViews>
   <sheets>
     <sheet name="Casanovo" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="25">
   <si>
     <t>single</t>
+  </si>
+  <si>
+    <t>2-MIX</t>
+  </si>
+  <si>
+    <t>3-MIX</t>
   </si>
   <si>
     <t>CDR</t>
@@ -53,7 +59,7 @@
     <t>Region</t>
   </si>
   <si>
-    <t>BD5514LH</t>
+    <t>SA55</t>
   </si>
   <si>
     <t>LC</t>
@@ -68,40 +74,34 @@
     <t>HC</t>
   </si>
   <si>
-    <t>50ug S2P6LH</t>
+    <t>50ug S2P6</t>
   </si>
   <si>
-    <t>S2P6LH-50ug</t>
+    <t>S2P6-50ug</t>
   </si>
   <si>
     <t>2B4</t>
   </si>
   <si>
-    <t>100ug S2P6LH</t>
+    <t>100ug S2P6</t>
   </si>
   <si>
-    <t>S2P6LH-100ug</t>
+    <t>S2P6-100ug</t>
   </si>
   <si>
     <t>V</t>
   </si>
   <si>
-    <t>200ug S2P6LH</t>
+    <t>200ug S2P6</t>
   </si>
   <si>
-    <t>S2P6LH-200ug</t>
+    <t>S2P6-200ug</t>
   </si>
   <si>
     <t>Chain</t>
   </si>
   <si>
     <t>mCSF1R</t>
-  </si>
-  <si>
-    <t>2-MIX</t>
-  </si>
-  <si>
-    <t>3-MIX</t>
   </si>
 </sst>
 </file>
@@ -462,11 +462,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -594,7 +623,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -606,34 +635,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -718,14 +747,38 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1262,7 +1315,7 @@
   <dimension ref="A1:AG50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
@@ -1271,1907 +1324,1932 @@
     <col min="4" max="6" width="9.02654867256637" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:30">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="4:33">
-      <c r="D2" s="1" t="s">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="T1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="G2"/>
-      <c r="J2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="L2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="P2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="Q2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="U2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA2" s="4" t="s">
+      <c r="V2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="W2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AB2" s="4" t="s">
+      <c r="Z2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="AD2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="AE2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF2" s="4" t="s">
+      <c r="AA2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="AG2" s="4" t="s">
+      <c r="AE2" s="12" t="s">
         <v>7</v>
+      </c>
+      <c r="AF2" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG2" s="12" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:33">
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="2">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4">
         <v>70.31579</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="4">
         <v>114.8056</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="4">
         <v>119.8093</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>8</v>
+      <c r="J3" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="2">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4">
         <v>70.31579</v>
       </c>
       <c r="M3" t="s">
-        <v>1</v>
-      </c>
-      <c r="O3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>143</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U3" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4">
+        <v>169.0588</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>123.625</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>11</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>117.8824</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="A4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7">
+        <v>56.11765</v>
+      </c>
+      <c r="E4" s="7">
+        <v>76.672</v>
+      </c>
+      <c r="F4" s="7">
+        <v>107.5824</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>143</v>
-      </c>
-      <c r="R3" t="s">
-        <v>1</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>9</v>
-      </c>
-      <c r="V3" s="2">
-        <v>169.0588</v>
-      </c>
-      <c r="W3" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>123.625</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF3" s="2">
-        <v>117.8824</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:33">
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4">
+        <v>56.11765</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="O4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2">
-        <v>56.11765</v>
-      </c>
-      <c r="E4" s="2">
-        <v>76.672</v>
-      </c>
-      <c r="F4" s="2">
-        <v>107.5824</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>140.8889</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="2">
-        <v>56.11765</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="U4" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="4">
+        <v>161.1481</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>91.93103</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="2">
-        <v>140.8889</v>
-      </c>
-      <c r="R4" t="s">
-        <v>1</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>12</v>
-      </c>
-      <c r="V4" s="2">
-        <v>161.1481</v>
-      </c>
-      <c r="W4" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>91.93103</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AE4" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF4" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF4" s="4">
         <v>120.5556</v>
       </c>
       <c r="AG4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:33">
       <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4">
+        <v>94.28571</v>
+      </c>
+      <c r="E5" s="4">
+        <v>97.97273</v>
+      </c>
+      <c r="F5" s="4">
+        <v>109.4147</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="4">
+        <v>94.28571</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2">
-        <v>94.28571</v>
-      </c>
-      <c r="E5" s="2">
-        <v>97.97273</v>
-      </c>
-      <c r="F5" s="2">
-        <v>109.4147</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K5" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="2">
-        <v>94.28571</v>
-      </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="P5" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="4">
         <v>105.4583</v>
       </c>
       <c r="R5" t="s">
-        <v>1</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="T5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="U5" t="s">
-        <v>9</v>
-      </c>
-      <c r="V5" s="2">
+        <v>11</v>
+      </c>
+      <c r="V5" s="4">
         <v>180.9167</v>
       </c>
       <c r="W5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y5" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="Y5" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="Z5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA5" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA5" s="4">
         <v>141.5833</v>
       </c>
       <c r="AB5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="AD5" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF5" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF5" s="4">
         <v>87.91667</v>
       </c>
       <c r="AG5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:33">
-      <c r="B6" s="1"/>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7">
         <v>122.59259</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="7">
         <v>115.9322</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="7">
         <v>132.6868</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
+      <c r="J6" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="2">
+        <v>14</v>
+      </c>
+      <c r="L6" s="4">
         <v>122.59259</v>
       </c>
       <c r="M6" t="s">
-        <v>1</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="P6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q6" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="4">
         <v>132.4828</v>
       </c>
       <c r="R6" t="s">
-        <v>1</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="T6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="U6" t="s">
-        <v>12</v>
-      </c>
-      <c r="V6" s="2">
+        <v>14</v>
+      </c>
+      <c r="V6" s="4">
         <v>153.25</v>
       </c>
       <c r="W6" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y6" s="3" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="Y6" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="Z6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA6" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA6" s="4">
         <v>118.8214</v>
       </c>
       <c r="AB6" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="AD6" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE6" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF6" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF6" s="4">
         <v>96.06897</v>
       </c>
       <c r="AG6" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:33">
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4">
         <v>131.2857</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="4">
         <v>136.2909</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="4">
         <v>148.8157</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="4">
+        <v>131.2857</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>169.6038</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U7" t="s">
+        <v>11</v>
+      </c>
+      <c r="V7" s="4">
+        <v>177.8396</v>
+      </c>
+      <c r="W7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA7" s="4">
+        <v>172.1593</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="2">
-        <v>131.2857</v>
-      </c>
-      <c r="M7" t="s">
-        <v>1</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>169.6038</v>
-      </c>
-      <c r="R7" t="s">
-        <v>18</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V7" s="2">
-        <v>177.8396</v>
-      </c>
-      <c r="W7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>172.1593</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD7" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="AE7" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF7" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF7" s="4">
         <v>120.4167</v>
       </c>
       <c r="AG7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:33">
-      <c r="B8" s="1"/>
-      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="7">
+        <v>137.7407</v>
+      </c>
+      <c r="E8" s="7">
+        <v>131.8051</v>
+      </c>
+      <c r="F8" s="7">
+        <v>158.9105</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="4">
+        <v>137.7407</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="2">
-        <v>137.7407</v>
-      </c>
-      <c r="E8" s="2">
-        <v>131.8051</v>
-      </c>
-      <c r="F8" s="2">
-        <v>158.9105</v>
-      </c>
-      <c r="J8" s="3" t="s">
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>177.2203</v>
+      </c>
+      <c r="R8" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="U8" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="4">
+        <v>151.6102</v>
+      </c>
+      <c r="W8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA8" s="4">
+        <v>154.4167</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K8" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="2">
-        <v>137.7407</v>
-      </c>
-      <c r="M8" t="s">
-        <v>1</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>177.2203</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="U8" t="s">
-        <v>12</v>
-      </c>
-      <c r="V8" s="2">
-        <v>151.6102</v>
-      </c>
-      <c r="W8" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>154.4167</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD8" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="AE8" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF8" s="4">
         <v>111.2857</v>
       </c>
       <c r="AG8" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="2:33">
       <c r="B9" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="2">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4">
         <v>190.8571</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="4">
         <v>216.4909</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="4">
         <v>283.7005</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>20</v>
+      <c r="J9" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="2">
+        <v>11</v>
+      </c>
+      <c r="L9" s="4">
         <v>190.8571</v>
       </c>
       <c r="M9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="P9" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="4">
         <v>129.3894</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="U9" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="2">
+        <v>11</v>
+      </c>
+      <c r="V9" s="4">
         <v>185.8761</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y9" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="Z9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA9" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA9" s="4">
         <v>190.4159</v>
       </c>
       <c r="AB9" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD9" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="AE9" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF9" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF9" s="4">
         <v>137.3208</v>
       </c>
       <c r="AG9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="2:33">
-      <c r="B10" s="1"/>
-      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>154.3333</v>
+      </c>
+      <c r="E10" s="7">
+        <v>168.4407</v>
+      </c>
+      <c r="F10" s="7">
+        <v>237.9597</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="4">
+        <v>154.3333</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>192.9083</v>
+      </c>
+      <c r="R10" t="s">
+        <v>20</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="4">
+        <v>146.8571</v>
+      </c>
+      <c r="W10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>135.5126</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="2">
-        <v>154.3333</v>
-      </c>
-      <c r="E10" s="2">
-        <v>168.4407</v>
-      </c>
-      <c r="F10" s="2">
-        <v>237.9597</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L10" s="2">
-        <v>154.3333</v>
-      </c>
-      <c r="M10" t="s">
-        <v>1</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P10" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>192.9083</v>
-      </c>
-      <c r="R10" t="s">
-        <v>18</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U10" t="s">
-        <v>12</v>
-      </c>
-      <c r="V10" s="2">
-        <v>146.8571</v>
-      </c>
-      <c r="W10" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>135.5126</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD10" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AE10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF10" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF10" s="4">
         <v>141.1525</v>
       </c>
       <c r="AG10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="2:33">
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="2">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4">
         <v>180.3529</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="4">
         <v>206.0849</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="4">
         <v>224.6338</v>
       </c>
-      <c r="J11" s="3" t="s">
-        <v>10</v>
+      <c r="J11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="K11" t="s">
-        <v>9</v>
-      </c>
-      <c r="L11" s="2">
+        <v>11</v>
+      </c>
+      <c r="L11" s="4">
         <v>180.3529</v>
       </c>
       <c r="M11" t="s">
-        <v>1</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="P11" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q11" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="4">
         <v>254.3239</v>
       </c>
       <c r="R11" t="s">
-        <v>21</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>10</v>
+        <v>23</v>
+      </c>
+      <c r="T11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="U11" t="s">
-        <v>9</v>
-      </c>
-      <c r="V11" s="2">
+        <v>11</v>
+      </c>
+      <c r="V11" s="4">
         <v>238.4225</v>
       </c>
       <c r="W11" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="Y11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="Z11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA11" s="4">
         <v>226.9091</v>
       </c>
       <c r="AB11" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD11" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE11" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF11" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF11" s="4">
         <v>126.5664</v>
       </c>
       <c r="AG11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="2:33">
-      <c r="B12" s="1"/>
-      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7">
+        <v>212.4444</v>
+      </c>
+      <c r="E12" s="7">
+        <v>187.0085</v>
+      </c>
+      <c r="F12" s="7">
+        <v>264.0498</v>
+      </c>
+      <c r="J12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="2">
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4">
         <v>212.4444</v>
       </c>
-      <c r="E12" s="2">
-        <v>187.0085</v>
-      </c>
-      <c r="F12" s="2">
-        <v>264.0498</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L12" s="2">
-        <v>212.4444</v>
-      </c>
-      <c r="M12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="P12" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>308.3733</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="2">
-        <v>308.3733</v>
-      </c>
-      <c r="R12" t="s">
-        <v>21</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="U12" t="s">
-        <v>12</v>
-      </c>
-      <c r="V12" s="2">
+        <v>14</v>
+      </c>
+      <c r="V12" s="4">
         <v>295.8054</v>
       </c>
       <c r="W12" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="Z12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA12" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA12" s="4">
         <v>273.5405</v>
       </c>
       <c r="AB12" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD12" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE12" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF12" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF12" s="4">
         <v>140.525</v>
       </c>
       <c r="AG12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="2:33">
       <c r="B13" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4">
         <v>107.5833</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="4">
         <v>139.292</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="4">
         <v>170.2409</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>11</v>
+      <c r="J13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>9</v>
-      </c>
-      <c r="L13" s="2">
+        <v>11</v>
+      </c>
+      <c r="L13" s="4">
         <v>107.5833</v>
       </c>
       <c r="M13" t="s">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="O13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="P13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q13" s="2">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="4">
         <v>230.9818</v>
       </c>
       <c r="R13" t="s">
-        <v>21</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="U13" t="s">
-        <v>9</v>
-      </c>
-      <c r="V13" s="2">
+        <v>11</v>
+      </c>
+      <c r="V13" s="4">
         <v>240.6636</v>
       </c>
       <c r="W13" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="Y13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="Z13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AA13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AA13" s="4">
         <v>236.3182</v>
       </c>
       <c r="AB13" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD13" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="AD13" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AE13" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF13" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF13" s="4">
         <v>152.3009</v>
       </c>
       <c r="AG13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="2:33">
-      <c r="B14" s="1"/>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="7">
         <v>139</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="7">
         <v>185.7917</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="7">
         <v>217.8716</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
+      <c r="J14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="2">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4">
         <v>139</v>
       </c>
       <c r="M14" t="s">
-        <v>1</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="O14" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="P14" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q14" s="2">
+        <v>14</v>
+      </c>
+      <c r="Q14" s="4">
         <v>312.0113</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="T14" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="U14" t="s">
-        <v>12</v>
-      </c>
-      <c r="V14" s="2">
+        <v>14</v>
+      </c>
+      <c r="V14" s="4">
         <v>294.2099</v>
       </c>
       <c r="W14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="Y14" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="Z14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AA14" s="2">
+        <v>14</v>
+      </c>
+      <c r="AA14" s="4">
         <v>268.7314</v>
       </c>
       <c r="AB14" t="s">
-        <v>21</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="AD14" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AE14" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF14" s="4">
         <v>117.1765</v>
       </c>
       <c r="AG14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:33">
       <c r="B15" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="2">
+        <v>11</v>
+      </c>
+      <c r="D15" s="4">
         <v>164.25</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="4">
         <v>175.0265</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="4">
         <v>210.7227</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>15</v>
+      <c r="J15" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K15" t="s">
-        <v>9</v>
-      </c>
-      <c r="L15" s="2">
+        <v>11</v>
+      </c>
+      <c r="L15" s="4">
         <v>164.25</v>
       </c>
       <c r="M15" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="3" t="s">
-        <v>10</v>
+        <v>3</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="AE15" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF15" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF15" s="4">
         <v>216.5822</v>
       </c>
       <c r="AG15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:33">
       <c r="B16" s="1"/>
       <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="4">
+        <v>156.3571</v>
+      </c>
+      <c r="E16" s="4">
+        <v>155.7899</v>
+      </c>
+      <c r="F16" s="4">
+        <v>244.544</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
+        <v>14</v>
+      </c>
+      <c r="L16" s="4">
+        <v>156.3571</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="2">
-        <v>156.3571</v>
-      </c>
-      <c r="E16" s="2">
-        <v>155.7899</v>
-      </c>
-      <c r="F16" s="2">
-        <v>244.544</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16" s="2">
-        <v>156.3571</v>
-      </c>
-      <c r="M16" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="AE16" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF16" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF16" s="4">
         <v>277.4231</v>
       </c>
       <c r="AG16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:33">
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="2">
+        <v>11</v>
+      </c>
+      <c r="D17" s="4">
         <v>200.7059</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="4">
         <v>232.2453</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="4">
         <v>238.6573</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>22</v>
+      <c r="J17" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K17" t="s">
-        <v>9</v>
-      </c>
-      <c r="L17" s="2">
+        <v>11</v>
+      </c>
+      <c r="L17" s="4">
         <v>200.7059</v>
       </c>
       <c r="M17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE17" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF17" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF17" s="4">
         <v>208.5409</v>
       </c>
       <c r="AG17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:33">
-      <c r="B18" s="1"/>
-      <c r="C18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
         <v>148.8148</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="7">
         <v>156.0254</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="7">
         <v>272.0182</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>22</v>
+      <c r="J18" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>12</v>
-      </c>
-      <c r="L18" s="2">
+        <v>14</v>
+      </c>
+      <c r="L18" s="4">
         <v>148.8148</v>
       </c>
       <c r="M18" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="3" t="s">
-        <v>11</v>
+        <v>3</v>
+      </c>
+      <c r="AD18" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="AE18" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF18" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF18" s="4">
         <v>276.6396</v>
       </c>
       <c r="AG18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="4:33">
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="J19" s="3" t="s">
-        <v>8</v>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="J19" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>9</v>
-      </c>
-      <c r="L19" s="2">
+        <v>11</v>
+      </c>
+      <c r="L19" s="4">
         <v>114.8056</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AE19" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF19" s="2">
+        <v>11</v>
+      </c>
+      <c r="AF19" s="4">
         <v>221.7591</v>
       </c>
       <c r="AG19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:33">
       <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="10">
+        <v>143</v>
+      </c>
+      <c r="E20" s="10">
+        <v>169.6038</v>
+      </c>
+      <c r="F20" s="10">
+        <v>254.3239</v>
+      </c>
+      <c r="J20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2">
-        <v>143</v>
-      </c>
-      <c r="E20" s="2">
-        <v>169.6038</v>
-      </c>
-      <c r="F20" s="2">
-        <v>254.3239</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K20" t="s">
-        <v>12</v>
-      </c>
-      <c r="L20" s="2">
+        <v>14</v>
+      </c>
+      <c r="L20" s="4">
         <v>76.672</v>
       </c>
       <c r="M20" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD20" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
+      </c>
+      <c r="AD20" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="AE20" t="s">
-        <v>12</v>
-      </c>
-      <c r="AF20" s="2">
+        <v>14</v>
+      </c>
+      <c r="AF20" s="4">
         <v>270.6749</v>
       </c>
       <c r="AG20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:13">
       <c r="B21" s="1"/>
       <c r="C21" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="4">
         <v>140.8889</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>177.2203</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>308.3733</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>14</v>
+      <c r="J21" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K21" t="s">
-        <v>9</v>
-      </c>
-      <c r="L21" s="2">
+        <v>11</v>
+      </c>
+      <c r="L21" s="4">
         <v>97.97273</v>
       </c>
       <c r="M21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="2:13">
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2">
+        <v>11</v>
+      </c>
+      <c r="D22" s="4">
         <v>105.4583</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>129.3894</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>230.9818</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>14</v>
+      <c r="J22" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K22" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="2">
+        <v>14</v>
+      </c>
+      <c r="L22" s="4">
         <v>115.9322</v>
       </c>
       <c r="M22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="1"/>
-      <c r="C23" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="2">
+      <c r="B23" s="6"/>
+      <c r="C23" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7">
         <v>132.4828</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="7">
         <v>192.9083</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="7">
         <v>312.0113</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>17</v>
+      <c r="J23" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K23" t="s">
-        <v>9</v>
-      </c>
-      <c r="L23" s="2">
+        <v>11</v>
+      </c>
+      <c r="L23" s="4">
         <v>136.2909</v>
       </c>
       <c r="M23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:13">
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4">
         <v>169.0588</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>177.8396</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>238.4225</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>17</v>
+      <c r="J24" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="2">
+        <v>14</v>
+      </c>
+      <c r="L24" s="4">
         <v>131.8051</v>
       </c>
       <c r="M24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="2:13">
       <c r="B25" s="1"/>
       <c r="C25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="2">
+        <v>14</v>
+      </c>
+      <c r="D25" s="4">
         <v>161.1481</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>151.6102</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="4">
         <v>295.8054</v>
       </c>
-      <c r="J25" s="3" t="s">
-        <v>20</v>
+      <c r="J25" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>9</v>
-      </c>
-      <c r="L25" s="2">
+        <v>11</v>
+      </c>
+      <c r="L25" s="4">
         <v>216.4909</v>
       </c>
       <c r="M25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:13">
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2">
+        <v>11</v>
+      </c>
+      <c r="D26" s="4">
         <v>180.9167</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="4">
         <v>185.8761</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="4">
         <v>240.6636</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>20</v>
+      <c r="J26" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="K26" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="4">
+        <v>168.4407</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13">
+      <c r="B27" s="6"/>
+      <c r="C27" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="7">
+        <v>153.25</v>
+      </c>
+      <c r="E27" s="7">
+        <v>146.8571</v>
+      </c>
+      <c r="F27" s="7">
+        <v>294.2099</v>
+      </c>
+      <c r="J27" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="2">
-        <v>168.4407</v>
-      </c>
-      <c r="M26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13">
-      <c r="B27" s="1"/>
-      <c r="C27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="2">
-        <v>153.25</v>
-      </c>
-      <c r="E27" s="2">
-        <v>146.8571</v>
-      </c>
-      <c r="F27" s="2">
-        <v>294.2099</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="K27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" s="2">
+        <v>11</v>
+      </c>
+      <c r="L27" s="4">
         <v>206.0849</v>
       </c>
       <c r="M27" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="2:13">
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2">
+        <v>11</v>
+      </c>
+      <c r="D28" s="4">
         <v>123.625</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="4">
         <v>172.1593</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="4">
         <v>226.9091</v>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>10</v>
+      <c r="J28" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="K28" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="2">
+        <v>14</v>
+      </c>
+      <c r="L28" s="4">
         <v>187.0085</v>
       </c>
       <c r="M28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:13">
       <c r="B29" s="1"/>
       <c r="C29" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="2">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4">
         <v>91.93103</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="4">
         <v>154.4167</v>
       </c>
-      <c r="F29" s="2">
+      <c r="F29" s="4">
         <v>273.5405</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>11</v>
+      <c r="J29" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="K29" t="s">
-        <v>9</v>
-      </c>
-      <c r="L29" s="2">
+        <v>11</v>
+      </c>
+      <c r="L29" s="4">
         <v>139.292</v>
       </c>
       <c r="M29" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="2:13">
       <c r="B30" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2">
+        <v>11</v>
+      </c>
+      <c r="D30" s="4">
         <v>141.5833</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="4">
         <v>190.4159</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="4">
         <v>236.3182</v>
       </c>
-      <c r="J30" s="3" t="s">
-        <v>11</v>
+      <c r="J30" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="K30" t="s">
-        <v>12</v>
-      </c>
-      <c r="L30" s="2">
+        <v>14</v>
+      </c>
+      <c r="L30" s="4">
         <v>185.7917</v>
       </c>
       <c r="M30" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="1"/>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="2">
+      <c r="B31" s="6"/>
+      <c r="C31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="7">
         <v>118.8214</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="7">
         <v>135.5126</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="7">
         <v>268.7314</v>
       </c>
-      <c r="J31" s="3" t="s">
-        <v>15</v>
+      <c r="J31" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K31" t="s">
-        <v>9</v>
-      </c>
-      <c r="L31" s="2">
+        <v>11</v>
+      </c>
+      <c r="L31" s="4">
         <v>175.0265</v>
       </c>
       <c r="M31" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="3"/>
+      <c r="B32" s="11"/>
       <c r="C32"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="J32" s="3" t="s">
-        <v>15</v>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="J32" s="11" t="s">
+        <v>17</v>
       </c>
       <c r="K32" t="s">
-        <v>12</v>
-      </c>
-      <c r="L32" s="2">
+        <v>14</v>
+      </c>
+      <c r="L32" s="4">
         <v>155.7899</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="2:13">
       <c r="B33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="J33" s="3" t="s">
-        <v>22</v>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="J33" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K33" t="s">
-        <v>9</v>
-      </c>
-      <c r="L33" s="2">
+        <v>11</v>
+      </c>
+      <c r="L33" s="4">
         <v>232.2453</v>
       </c>
       <c r="M33" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="10">
+        <v>117.8824</v>
+      </c>
+      <c r="E34" s="10">
+        <v>137.3208</v>
+      </c>
+      <c r="F34" s="10">
+        <v>216.5822</v>
+      </c>
+      <c r="J34" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2">
-        <v>117.8824</v>
-      </c>
-      <c r="E34" s="2">
-        <v>137.3208</v>
-      </c>
-      <c r="F34" s="2">
-        <v>216.5822</v>
-      </c>
-      <c r="J34" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="K34" t="s">
-        <v>12</v>
-      </c>
-      <c r="L34" s="2">
+        <v>14</v>
+      </c>
+      <c r="L34" s="4">
         <v>156.0254</v>
       </c>
       <c r="M34" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="2:13">
       <c r="B35" s="1"/>
       <c r="C35" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" s="4">
         <v>120.5556</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="4">
         <v>141.1525</v>
       </c>
-      <c r="F35" s="2">
+      <c r="F35" s="4">
         <v>277.4231</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>8</v>
+      <c r="J35" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="K35" t="s">
-        <v>9</v>
-      </c>
-      <c r="L35" s="2">
+        <v>11</v>
+      </c>
+      <c r="L35" s="4">
         <v>119.8093</v>
       </c>
       <c r="M35" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="2:13">
       <c r="B36" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2">
+        <v>11</v>
+      </c>
+      <c r="D36" s="4">
         <v>87.91667</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="4">
         <v>126.5664</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="4">
         <v>208.5409</v>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>8</v>
+      <c r="J36" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="K36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L36" s="2">
+        <v>14</v>
+      </c>
+      <c r="L36" s="4">
         <v>107.5824</v>
       </c>
       <c r="M36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="2:13">
       <c r="B37" s="1"/>
       <c r="C37" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" s="4">
         <v>96.06897</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="4">
         <v>140.525</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="4">
         <v>276.6396</v>
       </c>
-      <c r="J37" s="3" t="s">
-        <v>14</v>
+      <c r="J37" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K37" t="s">
-        <v>9</v>
-      </c>
-      <c r="L37" s="2">
+        <v>11</v>
+      </c>
+      <c r="L37" s="4">
         <v>109.4147</v>
       </c>
       <c r="M37" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="2:13">
       <c r="B38" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2">
+        <v>11</v>
+      </c>
+      <c r="D38" s="4">
         <v>120.4167</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="4">
         <v>152.3009</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="4">
         <v>221.7591</v>
       </c>
-      <c r="J38" s="3" t="s">
-        <v>14</v>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K38" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="4">
+        <v>132.6868</v>
+      </c>
+      <c r="M38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13">
+      <c r="B39" s="6"/>
+      <c r="C39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="7">
+        <v>111.2857</v>
+      </c>
+      <c r="E39" s="7">
+        <v>117.1765</v>
+      </c>
+      <c r="F39" s="7">
+        <v>270.6749</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K39" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="4">
+        <v>148.8157</v>
+      </c>
+      <c r="M39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="4:13">
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="J40" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" t="s">
+        <v>14</v>
+      </c>
+      <c r="L40" s="4">
+        <v>158.9105</v>
+      </c>
+      <c r="M40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="4:13">
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="J41" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41" t="s">
+        <v>11</v>
+      </c>
+      <c r="L41" s="4">
+        <v>283.7005</v>
+      </c>
+      <c r="M41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="4:13">
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="J42" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42" t="s">
+        <v>14</v>
+      </c>
+      <c r="L42" s="4">
+        <v>237.9597</v>
+      </c>
+      <c r="M42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="4:13">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="J43" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="L38" s="2">
-        <v>132.6868</v>
-      </c>
-      <c r="M38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13">
-      <c r="B39" s="1"/>
-      <c r="C39" t="s">
+      <c r="K43" t="s">
+        <v>11</v>
+      </c>
+      <c r="L43" s="4">
+        <v>224.6338</v>
+      </c>
+      <c r="M43" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="10:13">
+      <c r="J44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="2">
-        <v>111.2857</v>
-      </c>
-      <c r="E39" s="2">
-        <v>117.1765</v>
-      </c>
-      <c r="F39" s="2">
-        <v>270.6749</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K44" t="s">
+        <v>14</v>
+      </c>
+      <c r="L44" s="4">
+        <v>264.0498</v>
+      </c>
+      <c r="M44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="10:13">
+      <c r="J45" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K45" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="4">
+        <v>170.2409</v>
+      </c>
+      <c r="M45" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="10:13">
+      <c r="J46" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="K46" t="s">
+        <v>14</v>
+      </c>
+      <c r="L46" s="4">
+        <v>217.8716</v>
+      </c>
+      <c r="M46" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="10:13">
+      <c r="J47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K39" t="s">
-        <v>9</v>
-      </c>
-      <c r="L39" s="2">
-        <v>148.8157</v>
-      </c>
-      <c r="M39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="4:13">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="J40" s="3" t="s">
+      <c r="K47" t="s">
+        <v>11</v>
+      </c>
+      <c r="L47" s="4">
+        <v>210.7227</v>
+      </c>
+      <c r="M47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="10:13">
+      <c r="J48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="K40" t="s">
-        <v>12</v>
-      </c>
-      <c r="L40" s="2">
-        <v>158.9105</v>
-      </c>
-      <c r="M40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="4:13">
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="J41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" t="s">
-        <v>9</v>
-      </c>
-      <c r="L41" s="2">
-        <v>283.7005</v>
-      </c>
-      <c r="M41" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="4:13">
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="J42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="2">
-        <v>237.9597</v>
-      </c>
-      <c r="M42" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="4:13">
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="J43" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" t="s">
-        <v>9</v>
-      </c>
-      <c r="L43" s="2">
-        <v>224.6338</v>
-      </c>
-      <c r="M43" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="10:13">
-      <c r="J44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K44" t="s">
-        <v>12</v>
-      </c>
-      <c r="L44" s="2">
-        <v>264.0498</v>
-      </c>
-      <c r="M44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="10:13">
-      <c r="J45" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K45" t="s">
-        <v>9</v>
-      </c>
-      <c r="L45" s="2">
-        <v>170.2409</v>
-      </c>
-      <c r="M45" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="10:13">
-      <c r="J46" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" t="s">
-        <v>12</v>
-      </c>
-      <c r="L46" s="2">
-        <v>217.8716</v>
-      </c>
-      <c r="M46" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="47" spans="10:13">
-      <c r="J47" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K47" t="s">
-        <v>9</v>
-      </c>
-      <c r="L47" s="2">
-        <v>210.7227</v>
-      </c>
-      <c r="M47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="10:13">
-      <c r="J48" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="K48" t="s">
-        <v>12</v>
-      </c>
-      <c r="L48" s="2">
+        <v>14</v>
+      </c>
+      <c r="L48" s="4">
         <v>244.544</v>
       </c>
       <c r="M48" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="10:13">
-      <c r="J49" s="3" t="s">
-        <v>22</v>
+      <c r="J49" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K49" t="s">
-        <v>9</v>
-      </c>
-      <c r="L49" s="2">
+        <v>11</v>
+      </c>
+      <c r="L49" s="4">
         <v>238.6573</v>
       </c>
       <c r="M49" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="10:13">
-      <c r="J50" s="3" t="s">
-        <v>22</v>
+      <c r="J50" s="11" t="s">
+        <v>24</v>
       </c>
       <c r="K50" t="s">
-        <v>12</v>
-      </c>
-      <c r="L50" s="2">
+        <v>14</v>
+      </c>
+      <c r="L50" s="4">
         <v>272.0182</v>
       </c>
       <c r="M50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
